--- a/src/test/resources/testscript.xlsx
+++ b/src/test/resources/testscript.xlsx
@@ -158,7 +158,7 @@
     <t>a1234567809</t>
   </si>
   <si>
-    <t>abcd@42231</t>
+    <t>abcd@40001</t>
   </si>
 </sst>
 </file>
